--- a/medicine/Psychotrope/Les_Gouttes_de_Dieu/Les_Gouttes_de_Dieu.xlsx
+++ b/medicine/Psychotrope/Les_Gouttes_de_Dieu/Les_Gouttes_de_Dieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gouttes de Dieu (神の雫, Kami no Shizuku?) est un manga sur le vin écrit par Tadashi Agi et dessiné par Shū Okimoto. Il a été publié entre novembre 2004 et juin 2014 dans le magazine Weekly Morning et a été compilé en un total de quarante-quatre tomes[1]. L'arc final de la série intitulé Les Gouttes de Dieu - Mariage (マリアージュ 〜神の雫 最終章〜, Mariage ~Kami no Shizuku saishūshō~?) est publié entre mai 2015 et octobre 2020 et comporte 26 tomes[2],[3]. Une courte série intitulée Les Gouttes de Dieu - Deuxième (神の雫 deuxième, Kami no Shizuku deuxième?) est ensuite publiée depuis septembre 2023 pour un total de deux tomes[4],[5].
-La version française est publiée par Glénat depuis avril 2008[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gouttes de Dieu (神の雫, Kami no Shizuku?) est un manga sur le vin écrit par Tadashi Agi et dessiné par Shū Okimoto. Il a été publié entre novembre 2004 et juin 2014 dans le magazine Weekly Morning et a été compilé en un total de quarante-quatre tomes. L'arc final de la série intitulé Les Gouttes de Dieu - Mariage (マリアージュ 〜神の雫 最終章〜, Mariage ~Kami no Shizuku saishūshō~?) est publié entre mai 2015 et octobre 2020 et comporte 26 tomes,. Une courte série intitulée Les Gouttes de Dieu - Deuxième (神の雫 deuxième, Kami no Shizuku deuxième?) est ensuite publiée depuis septembre 2023 pour un total de deux tomes,.
+La version française est publiée par Glénat depuis avril 2008,.
 Une adaptation en drama est diffusée en 2009 sur la chaine NTV. Une série télévisée américano-franco-japonaise est diffusée en 2023.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Shizuku Kanzaki (神咲 雫, Kanzaki Shizuku?) est le fils de l'œnologue mondialement reconnu, Yutaka Kanzaki (神咲 豐多香, Kanzaki Yutaka?), récemment décédé et propriétaire d'une collection de vins très convoitée. Dans son testament, il décrit douze grands vins, les douze apôtres, ainsi qu'un treizième mystérieux vin idéal nommé Les Gouttes de Dieu. Afin de prendre possession de son héritage, Shizuku va devoir découvrir de quels vins il s'agit, dans une compétition avec Issei Tomine (遠峰 一青, Tōmine Issei?), un jeune œnologue réputé adopté par son père une semaine avant sa mort, dont il est légalement le frère.
 </t>
@@ -544,7 +558,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Shizuku Kanzaki (神咲 雫, Kanzaki Shizuku?) : C'est le fils du critique de vin mondialement célèbre Yutaka Kanzaki. Il a longtemps refusé de boire du vin par esprit de rébellion envers son père, mais à la mort de celui-ci, il est tombé sous le charme de ce breuvage. Il a peu de connaissances théoriques, mais ayant été éduqué enfant de manière à développer son don pour le vin, il possède une sensibilité et une capacité de description extraordinaires. Il travaille au département Vins des Bières Taiyo.
 Yutaka Kanzaki (神咲 豊多香, Kanzaki Yutaka?) : Un immense critique qui par son savoir, son expérience et sa puissance d'expression a gravé son nom dans le monde du vin. Après sa mort, l'ouverture de son testament a déclenché une onde de choc.
@@ -590,13 +606,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liste des volumes et chapitres
-Les vins cités ou illustrés
+          <t>Les vins cités ou illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les vins cités ou illustrés du volume 1
 Richebourg 1990/1999, domaine de la Romanée-Conti.
 Pommard Rugiens-Bas 1999 et 2000, domaine Aleth Le Royer-Girardin (orthographié Girdin).
 Richebourg 1959, domaine Henri Jayer.
-Château Mouton Rothschild 1982, pauillac[8].
+Château Mouton Rothschild 1982, pauillac.
 Château Mont-Pérat 2001, premières-côtes-de-bordeaux.
 Château Baron Pichon-Longueville, pauillac.
 Château Mouton Rothschild 1994, pauillac.
@@ -1003,7 +1024,7 @@
 Grands Echézeaux Grand Cru, domaine Robert Sirugue, 2002, France
 Grands Echézeaux Grand Cru, domaine Robert Sirugue, 2007, France
 Richebourg Grand Cru, domaine Leroy, 1988, France
-La Grande Année,, champagne Bollinger, 1999, France
+La Grande Année champagne Bollinger, 1999, France
 La Tâche,Domaine de la Romanée-Contti, 2004(?), France
 Vosne-Romanée 1er cru "Aux malconsorts", Sylvain Cathiard, 2002, France
 Champagne brut, Pehu Simonet, 2005, France
@@ -1041,9 +1062,7 @@
 Domaine Sogga bio, Cabernet Sauvignon 1er, 2008, (à Nagano Obusé)
 Saint Emilion Grand Cru, 1999, Château La Clusière
 Tomi no Oka, Koshu effervescent, 2007, Suntoru Tomi no Oka Winery
-Les douze Apôtres et Les Gouttes de Dieu
-Pour gagner chaque manche, Shizuku et Issei doivent présenter leur choix de vin qui correspond à la description qu'a fait Yutaka Kanzaki de chaque Apôtre, dans le testament. Le juge est Robert Doi (土肥 ロベール, Doi Robēru?), le meilleur ami de Yutaka.
-Apôtre trouvé et manche gagnée</t>
+</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1087,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les douze Apôtres et Les Gouttes de Dieu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pour gagner chaque manche, Shizuku et Issei doivent présenter leur choix de vin qui correspond à la description qu'a fait Yutaka Kanzaki de chaque Apôtre, dans le testament. Le juge est Robert Doi (土肥 ロベール, Doi Robēru?), le meilleur ami de Yutaka.
+Apôtre trouvé et manche gagnée</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Drama (2009)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le manga a été adapté au Japon en drama de neuf épisodes diffusés entre janvier 2009 et mars 2009[27].
-Distribution
-Kazuya Kamenashi : Kanzaki Shizuku
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manga a été adapté au Japon en drama de neuf épisodes diffusés entre janvier 2009 et mars 2009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Drama (2009)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Kazuya Kamenashi : Kanzaki Shizuku
 Seiichi Tanabe : Tomine Issei
 Yuki Uchida : Maki Saionji
 Riisa Naka : Shinohara Miyabi
@@ -1084,69 +1177,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Gouttes_de_Dieu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Série télévisée (2023)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une nouvelle adaptation sort en 2023, coproduction de France 2 et Hulu Japan, réalisée par Oded Ruskin. Les rôles principaux sont interprétés par Fleur Geffrier (Camille Léger) et Tomohisa Yamashita (Tomine Issei)[28].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_Gouttes_de_Dieu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Récompenses</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin 2008, plus de 2,2 millions d'exemplaires du manga s'étaient écoulées[29].
-Le manga a été reconnu comme le « meilleur livre du monde sur le vin » lors du Gourmand World Cookbook Awards 2009[30]. Le manga a aussi été élu Meilleur Seinen à Polymanga 2009 et aux Japan Expo Awards 2011[31]. Les auteurs ont également reçu le Grand prix de la revue des Vins de France de l'année 2010[32].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -1168,10 +1198,79 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Série télévisée (2023)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une nouvelle adaptation sort en 2023, coproduction de France 2 et Hulu Japan, réalisée par Oded Ruskin. Les rôles principaux sont interprétés par Fleur Geffrier (Camille Léger) et Tomohisa Yamashita (Tomine Issei).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 2008, plus de 2,2 millions d'exemplaires du manga s'étaient écoulées.
+Le manga a été reconnu comme le « meilleur livre du monde sur le vin » lors du Gourmand World Cookbook Awards 2009. Le manga a aussi été élu Meilleur Seinen à Polymanga 2009 et aux Japan Expo Awards 2011. Les auteurs ont également reçu le Grand prix de la revue des Vins de France de l'année 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Préfacier</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Une préface a été signée par François Audouze, collectionneur de vins rares et dégustateur de renommée mondiale.
 </t>
